--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1154.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1154.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.780751547096402</v>
+        <v>1.161928772926331</v>
       </c>
       <c r="B1">
-        <v>1.969635179819046</v>
+        <v>2.414951801300049</v>
       </c>
       <c r="C1">
-        <v>2.107671237342009</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.968431706555851</v>
+        <v>2.381839752197266</v>
       </c>
       <c r="E1">
-        <v>2.303465328130061</v>
+        <v>1.233621716499329</v>
       </c>
     </row>
   </sheetData>
